--- a/tests/pytest/archivos_excel/archivos_de_prueba/clases_preámbulo_roto.xlsx
+++ b/tests/pytest/archivos_excel/archivos_de_prueba/clases_preámbulo_roto.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t xml:space="preserve">Carrera: </t>
   </si>
@@ -79,13 +79,56 @@
   <si>
     <t xml:space="preserve">Aula</t>
   </si>
+  <si>
+    <t xml:space="preserve">Introducción a cosas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuatrimestral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COM1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las dos cosas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lunes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charly García</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nadie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si (8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anasagasti 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hormigón Armado 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sabado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miércoles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virtual</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="hh:mm"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -221,7 +264,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -276,6 +319,18 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -573,12 +628,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N1007"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+      <selection pane="bottomLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.56640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -700,39 +755,3517 @@
         <v>18</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="15" t="n">
+        <v>0.645833333333333</v>
+      </c>
+      <c r="H5" s="15" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="15" t="n">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="H6" s="15" t="n">
+        <v>0.979166666666667</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="F7" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="15" t="n">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="H7" s="15" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="14"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="14"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="14"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F19" s="14"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="14"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F22" s="14"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F23" s="14"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F24" s="14"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F25" s="14"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F26" s="14"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F27" s="14"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F28" s="14"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F29" s="14"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F30" s="14"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F31" s="14"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F32" s="14"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F33" s="14"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F34" s="14"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F35" s="14"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F36" s="14"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F37" s="14"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F38" s="14"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F39" s="14"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F40" s="14"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F41" s="14"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F42" s="14"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F43" s="14"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F44" s="14"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F45" s="14"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F46" s="14"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F47" s="14"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F48" s="14"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F49" s="14"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F50" s="14"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F51" s="14"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F52" s="14"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F53" s="14"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F54" s="14"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F55" s="14"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F56" s="14"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F57" s="14"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F58" s="14"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F59" s="14"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F60" s="14"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F61" s="14"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F62" s="14"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F63" s="14"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F64" s="14"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F65" s="14"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F66" s="14"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F67" s="14"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F68" s="14"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F69" s="14"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F70" s="14"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F71" s="14"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F72" s="14"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F73" s="14"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F74" s="14"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F75" s="14"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F76" s="14"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F77" s="14"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F78" s="14"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F79" s="14"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F80" s="14"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F81" s="14"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F82" s="14"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F83" s="14"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F84" s="14"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F85" s="14"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F86" s="14"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F87" s="14"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F88" s="14"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F89" s="14"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F90" s="14"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F91" s="14"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F92" s="14"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="15"/>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F93" s="14"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="15"/>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F94" s="14"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="15"/>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F95" s="14"/>
+      <c r="G95" s="15"/>
+      <c r="H95" s="15"/>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F96" s="14"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="15"/>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F97" s="14"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="15"/>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F98" s="14"/>
+      <c r="G98" s="15"/>
+      <c r="H98" s="15"/>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F99" s="14"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="15"/>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F100" s="14"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="15"/>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F101" s="14"/>
+      <c r="G101" s="15"/>
+      <c r="H101" s="15"/>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F102" s="14"/>
+      <c r="G102" s="15"/>
+      <c r="H102" s="15"/>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F103" s="14"/>
+      <c r="G103" s="15"/>
+      <c r="H103" s="15"/>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F104" s="14"/>
+      <c r="G104" s="15"/>
+      <c r="H104" s="15"/>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F105" s="14"/>
+      <c r="G105" s="15"/>
+      <c r="H105" s="15"/>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F106" s="14"/>
+      <c r="G106" s="15"/>
+      <c r="H106" s="15"/>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F107" s="14"/>
+      <c r="G107" s="15"/>
+      <c r="H107" s="15"/>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F108" s="14"/>
+      <c r="G108" s="15"/>
+      <c r="H108" s="15"/>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F109" s="14"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="15"/>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F110" s="14"/>
+      <c r="G110" s="15"/>
+      <c r="H110" s="15"/>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F111" s="14"/>
+      <c r="G111" s="15"/>
+      <c r="H111" s="15"/>
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F112" s="14"/>
+      <c r="G112" s="15"/>
+      <c r="H112" s="15"/>
+    </row>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F113" s="14"/>
+      <c r="G113" s="15"/>
+      <c r="H113" s="15"/>
+    </row>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F114" s="14"/>
+      <c r="G114" s="15"/>
+      <c r="H114" s="15"/>
+    </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F115" s="14"/>
+      <c r="G115" s="15"/>
+      <c r="H115" s="15"/>
+    </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F116" s="14"/>
+      <c r="G116" s="15"/>
+      <c r="H116" s="15"/>
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F117" s="14"/>
+      <c r="G117" s="15"/>
+      <c r="H117" s="15"/>
+    </row>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F118" s="14"/>
+      <c r="G118" s="15"/>
+      <c r="H118" s="15"/>
+    </row>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F119" s="14"/>
+      <c r="G119" s="15"/>
+      <c r="H119" s="15"/>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F120" s="14"/>
+      <c r="G120" s="15"/>
+      <c r="H120" s="15"/>
+    </row>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F121" s="14"/>
+      <c r="G121" s="15"/>
+      <c r="H121" s="15"/>
+    </row>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F122" s="14"/>
+      <c r="G122" s="15"/>
+      <c r="H122" s="15"/>
+    </row>
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F123" s="14"/>
+      <c r="G123" s="15"/>
+      <c r="H123" s="15"/>
+    </row>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F124" s="14"/>
+      <c r="G124" s="15"/>
+      <c r="H124" s="15"/>
+    </row>
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F125" s="14"/>
+      <c r="G125" s="15"/>
+      <c r="H125" s="15"/>
+    </row>
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F126" s="14"/>
+      <c r="G126" s="15"/>
+      <c r="H126" s="15"/>
+    </row>
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F127" s="14"/>
+      <c r="G127" s="15"/>
+      <c r="H127" s="15"/>
+    </row>
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F128" s="14"/>
+      <c r="G128" s="15"/>
+      <c r="H128" s="15"/>
+    </row>
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F129" s="14"/>
+      <c r="G129" s="15"/>
+      <c r="H129" s="15"/>
+    </row>
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F130" s="14"/>
+      <c r="G130" s="15"/>
+      <c r="H130" s="15"/>
+    </row>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F131" s="14"/>
+      <c r="G131" s="15"/>
+      <c r="H131" s="15"/>
+    </row>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F132" s="14"/>
+      <c r="G132" s="15"/>
+      <c r="H132" s="15"/>
+    </row>
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F133" s="14"/>
+      <c r="G133" s="15"/>
+      <c r="H133" s="15"/>
+    </row>
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F134" s="14"/>
+      <c r="G134" s="15"/>
+      <c r="H134" s="15"/>
+    </row>
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F135" s="14"/>
+      <c r="G135" s="15"/>
+      <c r="H135" s="15"/>
+    </row>
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F136" s="14"/>
+      <c r="G136" s="15"/>
+      <c r="H136" s="15"/>
+    </row>
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F137" s="14"/>
+      <c r="G137" s="15"/>
+      <c r="H137" s="15"/>
+    </row>
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F138" s="14"/>
+      <c r="G138" s="15"/>
+      <c r="H138" s="15"/>
+    </row>
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F139" s="14"/>
+      <c r="G139" s="15"/>
+      <c r="H139" s="15"/>
+    </row>
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F140" s="14"/>
+      <c r="G140" s="15"/>
+      <c r="H140" s="15"/>
+    </row>
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F141" s="14"/>
+      <c r="G141" s="15"/>
+      <c r="H141" s="15"/>
+    </row>
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F142" s="14"/>
+      <c r="G142" s="15"/>
+      <c r="H142" s="15"/>
+    </row>
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F143" s="14"/>
+      <c r="G143" s="15"/>
+      <c r="H143" s="15"/>
+    </row>
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F144" s="14"/>
+      <c r="G144" s="15"/>
+      <c r="H144" s="15"/>
+    </row>
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F145" s="14"/>
+      <c r="G145" s="15"/>
+      <c r="H145" s="15"/>
+    </row>
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F146" s="14"/>
+      <c r="G146" s="15"/>
+      <c r="H146" s="15"/>
+    </row>
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F147" s="14"/>
+      <c r="G147" s="15"/>
+      <c r="H147" s="15"/>
+    </row>
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F148" s="14"/>
+      <c r="G148" s="15"/>
+      <c r="H148" s="15"/>
+    </row>
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F149" s="14"/>
+      <c r="G149" s="15"/>
+      <c r="H149" s="15"/>
+    </row>
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F150" s="14"/>
+      <c r="G150" s="15"/>
+      <c r="H150" s="15"/>
+    </row>
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F151" s="14"/>
+      <c r="G151" s="15"/>
+      <c r="H151" s="15"/>
+    </row>
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F152" s="14"/>
+      <c r="G152" s="15"/>
+      <c r="H152" s="15"/>
+    </row>
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F153" s="14"/>
+      <c r="G153" s="15"/>
+      <c r="H153" s="15"/>
+    </row>
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F154" s="14"/>
+      <c r="G154" s="15"/>
+      <c r="H154" s="15"/>
+    </row>
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F155" s="14"/>
+      <c r="G155" s="15"/>
+      <c r="H155" s="15"/>
+    </row>
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F156" s="14"/>
+      <c r="G156" s="15"/>
+      <c r="H156" s="15"/>
+    </row>
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F157" s="14"/>
+      <c r="G157" s="15"/>
+      <c r="H157" s="15"/>
+    </row>
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F158" s="14"/>
+      <c r="G158" s="15"/>
+      <c r="H158" s="15"/>
+    </row>
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F159" s="14"/>
+      <c r="G159" s="15"/>
+      <c r="H159" s="15"/>
+    </row>
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F160" s="14"/>
+      <c r="G160" s="15"/>
+      <c r="H160" s="15"/>
+    </row>
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F161" s="14"/>
+      <c r="G161" s="15"/>
+      <c r="H161" s="15"/>
+    </row>
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F162" s="14"/>
+      <c r="G162" s="15"/>
+      <c r="H162" s="15"/>
+    </row>
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F163" s="14"/>
+      <c r="G163" s="15"/>
+      <c r="H163" s="15"/>
+    </row>
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F164" s="14"/>
+      <c r="G164" s="15"/>
+      <c r="H164" s="15"/>
+    </row>
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F165" s="14"/>
+      <c r="G165" s="15"/>
+      <c r="H165" s="15"/>
+    </row>
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F166" s="14"/>
+      <c r="G166" s="15"/>
+      <c r="H166" s="15"/>
+    </row>
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F167" s="14"/>
+      <c r="G167" s="15"/>
+      <c r="H167" s="15"/>
+    </row>
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F168" s="14"/>
+      <c r="G168" s="15"/>
+      <c r="H168" s="15"/>
+    </row>
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F169" s="14"/>
+      <c r="G169" s="15"/>
+      <c r="H169" s="15"/>
+    </row>
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F170" s="14"/>
+      <c r="G170" s="15"/>
+      <c r="H170" s="15"/>
+    </row>
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F171" s="14"/>
+      <c r="G171" s="15"/>
+      <c r="H171" s="15"/>
+    </row>
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F172" s="14"/>
+      <c r="G172" s="15"/>
+      <c r="H172" s="15"/>
+    </row>
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F173" s="14"/>
+      <c r="G173" s="15"/>
+      <c r="H173" s="15"/>
+    </row>
+    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F174" s="14"/>
+      <c r="G174" s="15"/>
+      <c r="H174" s="15"/>
+    </row>
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F175" s="14"/>
+      <c r="G175" s="15"/>
+      <c r="H175" s="15"/>
+    </row>
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F176" s="14"/>
+      <c r="G176" s="15"/>
+      <c r="H176" s="15"/>
+    </row>
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F177" s="14"/>
+      <c r="G177" s="15"/>
+      <c r="H177" s="15"/>
+    </row>
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F178" s="14"/>
+      <c r="G178" s="15"/>
+      <c r="H178" s="15"/>
+    </row>
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F179" s="14"/>
+      <c r="G179" s="15"/>
+      <c r="H179" s="15"/>
+    </row>
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F180" s="14"/>
+      <c r="G180" s="15"/>
+      <c r="H180" s="15"/>
+    </row>
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F181" s="14"/>
+      <c r="G181" s="15"/>
+      <c r="H181" s="15"/>
+    </row>
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F182" s="14"/>
+      <c r="G182" s="15"/>
+      <c r="H182" s="15"/>
+    </row>
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F183" s="14"/>
+      <c r="G183" s="15"/>
+      <c r="H183" s="15"/>
+    </row>
+    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F184" s="14"/>
+      <c r="G184" s="15"/>
+      <c r="H184" s="15"/>
+    </row>
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F185" s="14"/>
+      <c r="G185" s="15"/>
+      <c r="H185" s="15"/>
+    </row>
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F186" s="14"/>
+      <c r="G186" s="15"/>
+      <c r="H186" s="15"/>
+    </row>
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F187" s="14"/>
+      <c r="G187" s="15"/>
+      <c r="H187" s="15"/>
+    </row>
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F188" s="14"/>
+      <c r="G188" s="15"/>
+      <c r="H188" s="15"/>
+    </row>
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F189" s="14"/>
+      <c r="G189" s="15"/>
+      <c r="H189" s="15"/>
+    </row>
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F190" s="14"/>
+      <c r="G190" s="15"/>
+      <c r="H190" s="15"/>
+    </row>
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F191" s="14"/>
+      <c r="G191" s="15"/>
+      <c r="H191" s="15"/>
+    </row>
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F192" s="14"/>
+      <c r="G192" s="15"/>
+      <c r="H192" s="15"/>
+    </row>
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F193" s="14"/>
+      <c r="G193" s="15"/>
+      <c r="H193" s="15"/>
+    </row>
+    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F194" s="14"/>
+      <c r="G194" s="15"/>
+      <c r="H194" s="15"/>
+    </row>
+    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F195" s="14"/>
+      <c r="G195" s="15"/>
+      <c r="H195" s="15"/>
+    </row>
+    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F196" s="14"/>
+      <c r="G196" s="15"/>
+      <c r="H196" s="15"/>
+    </row>
+    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F197" s="14"/>
+      <c r="G197" s="15"/>
+      <c r="H197" s="15"/>
+    </row>
+    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F198" s="14"/>
+      <c r="G198" s="15"/>
+      <c r="H198" s="15"/>
+    </row>
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F199" s="14"/>
+      <c r="G199" s="15"/>
+      <c r="H199" s="15"/>
+    </row>
+    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F200" s="14"/>
+      <c r="G200" s="15"/>
+      <c r="H200" s="15"/>
+    </row>
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F201" s="14"/>
+      <c r="G201" s="15"/>
+      <c r="H201" s="15"/>
+    </row>
+    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F202" s="14"/>
+      <c r="G202" s="15"/>
+      <c r="H202" s="15"/>
+    </row>
+    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F203" s="14"/>
+      <c r="G203" s="15"/>
+      <c r="H203" s="15"/>
+    </row>
+    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F204" s="14"/>
+    </row>
+    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F205" s="14"/>
+    </row>
+    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F206" s="14"/>
+    </row>
+    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F207" s="14"/>
+    </row>
+    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F208" s="14"/>
+    </row>
+    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F209" s="14"/>
+    </row>
+    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F210" s="14"/>
+    </row>
+    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F211" s="14"/>
+    </row>
+    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F212" s="14"/>
+    </row>
+    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F213" s="14"/>
+    </row>
+    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F214" s="14"/>
+    </row>
+    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F215" s="14"/>
+    </row>
+    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F216" s="14"/>
+    </row>
+    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F217" s="14"/>
+    </row>
+    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F218" s="14"/>
+    </row>
+    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F219" s="14"/>
+    </row>
+    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F220" s="14"/>
+    </row>
+    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F221" s="14"/>
+    </row>
+    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F222" s="14"/>
+    </row>
+    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F223" s="14"/>
+    </row>
+    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F224" s="14"/>
+    </row>
+    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F225" s="14"/>
+    </row>
+    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F226" s="14"/>
+    </row>
+    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F227" s="14"/>
+    </row>
+    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F228" s="14"/>
+    </row>
+    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F229" s="14"/>
+    </row>
+    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F230" s="14"/>
+    </row>
+    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F231" s="14"/>
+    </row>
+    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F232" s="14"/>
+    </row>
+    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F233" s="14"/>
+    </row>
+    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F234" s="14"/>
+    </row>
+    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F235" s="14"/>
+    </row>
+    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F236" s="14"/>
+    </row>
+    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F237" s="14"/>
+    </row>
+    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F238" s="14"/>
+    </row>
+    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F239" s="14"/>
+    </row>
+    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F240" s="14"/>
+    </row>
+    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F241" s="14"/>
+    </row>
+    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F242" s="14"/>
+    </row>
+    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F243" s="14"/>
+    </row>
+    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F244" s="14"/>
+    </row>
+    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F245" s="14"/>
+    </row>
+    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F246" s="14"/>
+    </row>
+    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F247" s="14"/>
+    </row>
+    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F248" s="14"/>
+    </row>
+    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F249" s="14"/>
+    </row>
+    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F250" s="14"/>
+    </row>
+    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F251" s="14"/>
+    </row>
+    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F252" s="14"/>
+    </row>
+    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F253" s="14"/>
+    </row>
+    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F254" s="14"/>
+    </row>
+    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F255" s="14"/>
+    </row>
+    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F256" s="14"/>
+    </row>
+    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F257" s="14"/>
+    </row>
+    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F258" s="14"/>
+    </row>
+    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F259" s="14"/>
+    </row>
+    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F260" s="14"/>
+    </row>
+    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F261" s="14"/>
+    </row>
+    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F262" s="14"/>
+    </row>
+    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F263" s="14"/>
+    </row>
+    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F264" s="14"/>
+    </row>
+    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F265" s="14"/>
+    </row>
+    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F266" s="14"/>
+    </row>
+    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F267" s="14"/>
+    </row>
+    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F268" s="14"/>
+    </row>
+    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F269" s="14"/>
+    </row>
+    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F270" s="14"/>
+    </row>
+    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F271" s="14"/>
+    </row>
+    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F272" s="14"/>
+    </row>
+    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F273" s="14"/>
+    </row>
+    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F274" s="14"/>
+    </row>
+    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F275" s="14"/>
+    </row>
+    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F276" s="14"/>
+    </row>
+    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F277" s="14"/>
+    </row>
+    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F278" s="14"/>
+    </row>
+    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F279" s="14"/>
+    </row>
+    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F280" s="14"/>
+    </row>
+    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F281" s="14"/>
+    </row>
+    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F282" s="14"/>
+    </row>
+    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F283" s="14"/>
+    </row>
+    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F284" s="14"/>
+    </row>
+    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F285" s="14"/>
+    </row>
+    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F286" s="14"/>
+    </row>
+    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F287" s="14"/>
+    </row>
+    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F288" s="14"/>
+    </row>
+    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F289" s="14"/>
+    </row>
+    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F290" s="14"/>
+    </row>
+    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F291" s="14"/>
+    </row>
+    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F292" s="14"/>
+    </row>
+    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F293" s="14"/>
+    </row>
+    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F294" s="14"/>
+    </row>
+    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F295" s="14"/>
+    </row>
+    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F296" s="14"/>
+    </row>
+    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F297" s="14"/>
+    </row>
+    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F298" s="14"/>
+    </row>
+    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F299" s="14"/>
+    </row>
+    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F300" s="14"/>
+    </row>
+    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F301" s="14"/>
+    </row>
+    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F302" s="14"/>
+    </row>
+    <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F303" s="14"/>
+    </row>
+    <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F304" s="14"/>
+    </row>
+    <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F305" s="14"/>
+    </row>
+    <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F306" s="14"/>
+    </row>
+    <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F307" s="14"/>
+    </row>
+    <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F308" s="14"/>
+    </row>
+    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F309" s="14"/>
+    </row>
+    <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F310" s="14"/>
+    </row>
+    <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F311" s="14"/>
+    </row>
+    <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F312" s="14"/>
+    </row>
+    <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F313" s="14"/>
+    </row>
+    <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F314" s="14"/>
+    </row>
+    <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F315" s="14"/>
+    </row>
+    <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F316" s="14"/>
+    </row>
+    <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F317" s="14"/>
+    </row>
+    <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F318" s="14"/>
+    </row>
+    <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F319" s="14"/>
+    </row>
+    <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F320" s="14"/>
+    </row>
+    <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F321" s="14"/>
+    </row>
+    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F322" s="14"/>
+    </row>
+    <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F323" s="14"/>
+    </row>
+    <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F324" s="14"/>
+    </row>
+    <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F325" s="14"/>
+    </row>
+    <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F326" s="14"/>
+    </row>
+    <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F327" s="14"/>
+    </row>
+    <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F328" s="14"/>
+    </row>
+    <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F329" s="14"/>
+    </row>
+    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F330" s="14"/>
+    </row>
+    <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F331" s="14"/>
+    </row>
+    <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F332" s="14"/>
+    </row>
+    <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F333" s="14"/>
+    </row>
+    <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F334" s="14"/>
+    </row>
+    <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F335" s="14"/>
+    </row>
+    <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F336" s="14"/>
+    </row>
+    <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F337" s="14"/>
+    </row>
+    <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F338" s="14"/>
+    </row>
+    <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F339" s="14"/>
+    </row>
+    <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F340" s="14"/>
+    </row>
+    <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F341" s="14"/>
+    </row>
+    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F342" s="14"/>
+    </row>
+    <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F343" s="14"/>
+    </row>
+    <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F344" s="14"/>
+    </row>
+    <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F345" s="14"/>
+    </row>
+    <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F346" s="14"/>
+    </row>
+    <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F347" s="14"/>
+    </row>
+    <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F348" s="14"/>
+    </row>
+    <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F349" s="14"/>
+    </row>
+    <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F350" s="14"/>
+    </row>
+    <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F351" s="14"/>
+    </row>
+    <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F352" s="14"/>
+    </row>
+    <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F353" s="14"/>
+    </row>
+    <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F354" s="14"/>
+    </row>
+    <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F355" s="14"/>
+    </row>
+    <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F356" s="14"/>
+    </row>
+    <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F357" s="14"/>
+    </row>
+    <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F358" s="14"/>
+    </row>
+    <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F359" s="14"/>
+    </row>
+    <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F360" s="14"/>
+    </row>
+    <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F361" s="14"/>
+    </row>
+    <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F362" s="14"/>
+    </row>
+    <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F363" s="14"/>
+    </row>
+    <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F364" s="14"/>
+    </row>
+    <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F365" s="14"/>
+    </row>
+    <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F366" s="14"/>
+    </row>
+    <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F367" s="14"/>
+    </row>
+    <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F368" s="14"/>
+    </row>
+    <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F369" s="14"/>
+    </row>
+    <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F370" s="14"/>
+    </row>
+    <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F371" s="14"/>
+    </row>
+    <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F372" s="14"/>
+    </row>
+    <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F373" s="14"/>
+    </row>
+    <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F374" s="14"/>
+    </row>
+    <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F375" s="14"/>
+    </row>
+    <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F376" s="14"/>
+    </row>
+    <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F377" s="14"/>
+    </row>
+    <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F378" s="14"/>
+    </row>
+    <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F379" s="14"/>
+    </row>
+    <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F380" s="14"/>
+    </row>
+    <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F381" s="14"/>
+    </row>
+    <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F382" s="14"/>
+    </row>
+    <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F383" s="14"/>
+    </row>
+    <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F384" s="14"/>
+    </row>
+    <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F385" s="14"/>
+    </row>
+    <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F386" s="14"/>
+    </row>
+    <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F387" s="14"/>
+    </row>
+    <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F388" s="14"/>
+    </row>
+    <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F389" s="14"/>
+    </row>
+    <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F390" s="14"/>
+    </row>
+    <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F391" s="14"/>
+    </row>
+    <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F392" s="14"/>
+    </row>
+    <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F393" s="14"/>
+    </row>
+    <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F394" s="14"/>
+    </row>
+    <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F395" s="14"/>
+    </row>
+    <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F396" s="14"/>
+    </row>
+    <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F397" s="14"/>
+    </row>
+    <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F398" s="14"/>
+    </row>
+    <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F399" s="14"/>
+    </row>
+    <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F400" s="14"/>
+    </row>
+    <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F401" s="14"/>
+    </row>
+    <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F402" s="14"/>
+    </row>
+    <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F403" s="14"/>
+    </row>
+    <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F404" s="14"/>
+    </row>
+    <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F405" s="14"/>
+    </row>
+    <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F406" s="14"/>
+    </row>
+    <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F407" s="14"/>
+    </row>
+    <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F408" s="14"/>
+    </row>
+    <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F409" s="14"/>
+    </row>
+    <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F410" s="14"/>
+    </row>
+    <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F411" s="14"/>
+    </row>
+    <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F412" s="14"/>
+    </row>
+    <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F413" s="14"/>
+    </row>
+    <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F414" s="14"/>
+    </row>
+    <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F415" s="14"/>
+    </row>
+    <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F416" s="14"/>
+    </row>
+    <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F417" s="14"/>
+    </row>
+    <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F418" s="14"/>
+    </row>
+    <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F419" s="14"/>
+    </row>
+    <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F420" s="14"/>
+    </row>
+    <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F421" s="14"/>
+    </row>
+    <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F422" s="14"/>
+    </row>
+    <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F423" s="14"/>
+    </row>
+    <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F424" s="14"/>
+    </row>
+    <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F425" s="14"/>
+    </row>
+    <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F426" s="14"/>
+    </row>
+    <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F427" s="14"/>
+    </row>
+    <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F428" s="14"/>
+    </row>
+    <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F429" s="14"/>
+    </row>
+    <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F430" s="14"/>
+    </row>
+    <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F431" s="14"/>
+    </row>
+    <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F432" s="14"/>
+    </row>
+    <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F433" s="14"/>
+    </row>
+    <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F434" s="14"/>
+    </row>
+    <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F435" s="14"/>
+    </row>
+    <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F436" s="14"/>
+    </row>
+    <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F437" s="14"/>
+    </row>
+    <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F438" s="14"/>
+    </row>
+    <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F439" s="14"/>
+    </row>
+    <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F440" s="14"/>
+    </row>
+    <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F441" s="14"/>
+    </row>
+    <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F442" s="14"/>
+    </row>
+    <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F443" s="14"/>
+    </row>
+    <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F444" s="14"/>
+    </row>
+    <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F445" s="14"/>
+    </row>
+    <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F446" s="14"/>
+    </row>
+    <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F447" s="14"/>
+    </row>
+    <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F448" s="14"/>
+    </row>
+    <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F449" s="14"/>
+    </row>
+    <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F450" s="14"/>
+    </row>
+    <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F451" s="14"/>
+    </row>
+    <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F452" s="14"/>
+    </row>
+    <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F453" s="14"/>
+    </row>
+    <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F454" s="14"/>
+    </row>
+    <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F455" s="14"/>
+    </row>
+    <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F456" s="14"/>
+    </row>
+    <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F457" s="14"/>
+    </row>
+    <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F458" s="14"/>
+    </row>
+    <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F459" s="14"/>
+    </row>
+    <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F460" s="14"/>
+    </row>
+    <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F461" s="14"/>
+    </row>
+    <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F462" s="14"/>
+    </row>
+    <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F463" s="14"/>
+    </row>
+    <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F464" s="14"/>
+    </row>
+    <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F465" s="14"/>
+    </row>
+    <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F466" s="14"/>
+    </row>
+    <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F467" s="14"/>
+    </row>
+    <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F468" s="14"/>
+    </row>
+    <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F469" s="14"/>
+    </row>
+    <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F470" s="14"/>
+    </row>
+    <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F471" s="14"/>
+    </row>
+    <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F472" s="14"/>
+    </row>
+    <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F473" s="14"/>
+    </row>
+    <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F474" s="14"/>
+    </row>
+    <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F475" s="14"/>
+    </row>
+    <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F476" s="14"/>
+    </row>
+    <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F477" s="14"/>
+    </row>
+    <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F478" s="14"/>
+    </row>
+    <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F479" s="14"/>
+    </row>
+    <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F480" s="14"/>
+    </row>
+    <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F481" s="14"/>
+    </row>
+    <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F482" s="14"/>
+    </row>
+    <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F483" s="14"/>
+    </row>
+    <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F484" s="14"/>
+    </row>
+    <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F485" s="14"/>
+    </row>
+    <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F486" s="14"/>
+    </row>
+    <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F487" s="14"/>
+    </row>
+    <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F488" s="14"/>
+    </row>
+    <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F489" s="14"/>
+    </row>
+    <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F490" s="14"/>
+    </row>
+    <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F491" s="14"/>
+    </row>
+    <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F492" s="14"/>
+    </row>
+    <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F493" s="14"/>
+    </row>
+    <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F494" s="14"/>
+    </row>
+    <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F495" s="14"/>
+    </row>
+    <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F496" s="14"/>
+    </row>
+    <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F497" s="14"/>
+    </row>
+    <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F498" s="14"/>
+    </row>
+    <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F499" s="14"/>
+    </row>
+    <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F500" s="14"/>
+    </row>
+    <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F501" s="14"/>
+    </row>
+    <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F502" s="14"/>
+    </row>
+    <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F503" s="14"/>
+    </row>
+    <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F504" s="14"/>
+    </row>
+    <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F505" s="14"/>
+    </row>
+    <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F506" s="14"/>
+    </row>
+    <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F507" s="14"/>
+    </row>
+    <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F508" s="14"/>
+    </row>
+    <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F509" s="14"/>
+    </row>
+    <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F510" s="14"/>
+    </row>
+    <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F511" s="14"/>
+    </row>
+    <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F512" s="14"/>
+    </row>
+    <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F513" s="14"/>
+    </row>
+    <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F514" s="14"/>
+    </row>
+    <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F515" s="14"/>
+    </row>
+    <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F516" s="14"/>
+    </row>
+    <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F517" s="14"/>
+    </row>
+    <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F518" s="14"/>
+    </row>
+    <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F519" s="14"/>
+    </row>
+    <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F520" s="14"/>
+    </row>
+    <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F521" s="14"/>
+    </row>
+    <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F522" s="14"/>
+    </row>
+    <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F523" s="14"/>
+    </row>
+    <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F524" s="14"/>
+    </row>
+    <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F525" s="14"/>
+    </row>
+    <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F526" s="14"/>
+    </row>
+    <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F527" s="14"/>
+    </row>
+    <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F528" s="14"/>
+    </row>
+    <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F529" s="14"/>
+    </row>
+    <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F530" s="14"/>
+    </row>
+    <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F531" s="14"/>
+    </row>
+    <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F532" s="14"/>
+    </row>
+    <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F533" s="14"/>
+    </row>
+    <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F534" s="14"/>
+    </row>
+    <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F535" s="14"/>
+    </row>
+    <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F536" s="14"/>
+    </row>
+    <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F537" s="14"/>
+    </row>
+    <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F538" s="14"/>
+    </row>
+    <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F539" s="14"/>
+    </row>
+    <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F540" s="14"/>
+    </row>
+    <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F541" s="14"/>
+    </row>
+    <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F542" s="14"/>
+    </row>
+    <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F543" s="14"/>
+    </row>
+    <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F544" s="14"/>
+    </row>
+    <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F545" s="14"/>
+    </row>
+    <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F546" s="14"/>
+    </row>
+    <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F547" s="14"/>
+    </row>
+    <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F548" s="14"/>
+    </row>
+    <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F549" s="14"/>
+    </row>
+    <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F550" s="14"/>
+    </row>
+    <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F551" s="14"/>
+    </row>
+    <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F552" s="14"/>
+    </row>
+    <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F553" s="14"/>
+    </row>
+    <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F554" s="14"/>
+    </row>
+    <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F555" s="14"/>
+    </row>
+    <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F556" s="14"/>
+    </row>
+    <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F557" s="14"/>
+    </row>
+    <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F558" s="14"/>
+    </row>
+    <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F559" s="14"/>
+    </row>
+    <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F560" s="14"/>
+    </row>
+    <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F561" s="14"/>
+    </row>
+    <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F562" s="14"/>
+    </row>
+    <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F563" s="14"/>
+    </row>
+    <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F564" s="14"/>
+    </row>
+    <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F565" s="14"/>
+    </row>
+    <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F566" s="14"/>
+    </row>
+    <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F567" s="14"/>
+    </row>
+    <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F568" s="14"/>
+    </row>
+    <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F569" s="14"/>
+    </row>
+    <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F570" s="14"/>
+    </row>
+    <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F571" s="14"/>
+    </row>
+    <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F572" s="14"/>
+    </row>
+    <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F573" s="14"/>
+    </row>
+    <row r="574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F574" s="14"/>
+    </row>
+    <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F575" s="14"/>
+    </row>
+    <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F576" s="14"/>
+    </row>
+    <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F577" s="14"/>
+    </row>
+    <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F578" s="14"/>
+    </row>
+    <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F579" s="14"/>
+    </row>
+    <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F580" s="14"/>
+    </row>
+    <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F581" s="14"/>
+    </row>
+    <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F582" s="14"/>
+    </row>
+    <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F583" s="14"/>
+    </row>
+    <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F584" s="14"/>
+    </row>
+    <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F585" s="14"/>
+    </row>
+    <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F586" s="14"/>
+    </row>
+    <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F587" s="14"/>
+    </row>
+    <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F588" s="14"/>
+    </row>
+    <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F589" s="14"/>
+    </row>
+    <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F590" s="14"/>
+    </row>
+    <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F591" s="14"/>
+    </row>
+    <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F592" s="14"/>
+    </row>
+    <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F593" s="14"/>
+    </row>
+    <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F594" s="14"/>
+    </row>
+    <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F595" s="14"/>
+    </row>
+    <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F596" s="14"/>
+    </row>
+    <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F597" s="14"/>
+    </row>
+    <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F598" s="14"/>
+    </row>
+    <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F599" s="14"/>
+    </row>
+    <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F600" s="14"/>
+    </row>
+    <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F601" s="14"/>
+    </row>
+    <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F602" s="14"/>
+    </row>
+    <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F603" s="14"/>
+    </row>
+    <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F604" s="14"/>
+    </row>
+    <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F605" s="14"/>
+    </row>
+    <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F606" s="14"/>
+    </row>
+    <row r="607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F607" s="14"/>
+    </row>
+    <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F608" s="14"/>
+    </row>
+    <row r="609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F609" s="14"/>
+    </row>
+    <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F610" s="14"/>
+    </row>
+    <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F611" s="14"/>
+    </row>
+    <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F612" s="14"/>
+    </row>
+    <row r="613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F613" s="14"/>
+    </row>
+    <row r="614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F614" s="14"/>
+    </row>
+    <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F615" s="14"/>
+    </row>
+    <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F616" s="14"/>
+    </row>
+    <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F617" s="14"/>
+    </row>
+    <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F618" s="14"/>
+    </row>
+    <row r="619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F619" s="14"/>
+    </row>
+    <row r="620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F620" s="14"/>
+    </row>
+    <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F621" s="14"/>
+    </row>
+    <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F622" s="14"/>
+    </row>
+    <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F623" s="14"/>
+    </row>
+    <row r="624" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F624" s="14"/>
+    </row>
+    <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F625" s="14"/>
+    </row>
+    <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F626" s="14"/>
+    </row>
+    <row r="627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F627" s="14"/>
+    </row>
+    <row r="628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F628" s="14"/>
+    </row>
+    <row r="629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F629" s="14"/>
+    </row>
+    <row r="630" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F630" s="14"/>
+    </row>
+    <row r="631" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F631" s="14"/>
+    </row>
+    <row r="632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F632" s="14"/>
+    </row>
+    <row r="633" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F633" s="14"/>
+    </row>
+    <row r="634" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F634" s="14"/>
+    </row>
+    <row r="635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F635" s="14"/>
+    </row>
+    <row r="636" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F636" s="14"/>
+    </row>
+    <row r="637" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F637" s="14"/>
+    </row>
+    <row r="638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F638" s="14"/>
+    </row>
+    <row r="639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F639" s="14"/>
+    </row>
+    <row r="640" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F640" s="14"/>
+    </row>
+    <row r="641" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F641" s="14"/>
+    </row>
+    <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F642" s="14"/>
+    </row>
+    <row r="643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F643" s="14"/>
+    </row>
+    <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F644" s="14"/>
+    </row>
+    <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F645" s="14"/>
+    </row>
+    <row r="646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F646" s="14"/>
+    </row>
+    <row r="647" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F647" s="14"/>
+    </row>
+    <row r="648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F648" s="14"/>
+    </row>
+    <row r="649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F649" s="14"/>
+    </row>
+    <row r="650" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F650" s="14"/>
+    </row>
+    <row r="651" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F651" s="14"/>
+    </row>
+    <row r="652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F652" s="14"/>
+    </row>
+    <row r="653" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F653" s="14"/>
+    </row>
+    <row r="654" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F654" s="14"/>
+    </row>
+    <row r="655" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F655" s="14"/>
+    </row>
+    <row r="656" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F656" s="14"/>
+    </row>
+    <row r="657" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F657" s="14"/>
+    </row>
+    <row r="658" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F658" s="14"/>
+    </row>
+    <row r="659" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F659" s="14"/>
+    </row>
+    <row r="660" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F660" s="14"/>
+    </row>
+    <row r="661" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F661" s="14"/>
+    </row>
+    <row r="662" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F662" s="14"/>
+    </row>
+    <row r="663" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F663" s="14"/>
+    </row>
+    <row r="664" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F664" s="14"/>
+    </row>
+    <row r="665" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F665" s="14"/>
+    </row>
+    <row r="666" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F666" s="14"/>
+    </row>
+    <row r="667" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F667" s="14"/>
+    </row>
+    <row r="668" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F668" s="14"/>
+    </row>
+    <row r="669" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F669" s="14"/>
+    </row>
+    <row r="670" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F670" s="14"/>
+    </row>
+    <row r="671" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F671" s="14"/>
+    </row>
+    <row r="672" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F672" s="14"/>
+    </row>
+    <row r="673" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F673" s="14"/>
+    </row>
+    <row r="674" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F674" s="14"/>
+    </row>
+    <row r="675" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F675" s="14"/>
+    </row>
+    <row r="676" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F676" s="14"/>
+    </row>
+    <row r="677" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F677" s="14"/>
+    </row>
+    <row r="678" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F678" s="14"/>
+    </row>
+    <row r="679" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F679" s="14"/>
+    </row>
+    <row r="680" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F680" s="14"/>
+    </row>
+    <row r="681" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F681" s="14"/>
+    </row>
+    <row r="682" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F682" s="14"/>
+    </row>
+    <row r="683" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F683" s="14"/>
+    </row>
+    <row r="684" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F684" s="14"/>
+    </row>
+    <row r="685" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F685" s="14"/>
+    </row>
+    <row r="686" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F686" s="14"/>
+    </row>
+    <row r="687" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F687" s="14"/>
+    </row>
+    <row r="688" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F688" s="14"/>
+    </row>
+    <row r="689" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F689" s="14"/>
+    </row>
+    <row r="690" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F690" s="14"/>
+    </row>
+    <row r="691" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F691" s="14"/>
+    </row>
+    <row r="692" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F692" s="14"/>
+    </row>
+    <row r="693" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F693" s="14"/>
+    </row>
+    <row r="694" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F694" s="14"/>
+    </row>
+    <row r="695" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F695" s="14"/>
+    </row>
+    <row r="696" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F696" s="14"/>
+    </row>
+    <row r="697" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F697" s="14"/>
+    </row>
+    <row r="698" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F698" s="14"/>
+    </row>
+    <row r="699" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F699" s="14"/>
+    </row>
+    <row r="700" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F700" s="14"/>
+    </row>
+    <row r="701" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F701" s="14"/>
+    </row>
+    <row r="702" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F702" s="14"/>
+    </row>
+    <row r="703" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F703" s="14"/>
+    </row>
+    <row r="704" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F704" s="14"/>
+    </row>
+    <row r="705" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F705" s="14"/>
+    </row>
+    <row r="706" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F706" s="14"/>
+    </row>
+    <row r="707" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F707" s="14"/>
+    </row>
+    <row r="708" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F708" s="14"/>
+    </row>
+    <row r="709" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F709" s="14"/>
+    </row>
+    <row r="710" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F710" s="14"/>
+    </row>
+    <row r="711" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F711" s="14"/>
+    </row>
+    <row r="712" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F712" s="14"/>
+    </row>
+    <row r="713" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F713" s="14"/>
+    </row>
+    <row r="714" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F714" s="14"/>
+    </row>
+    <row r="715" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F715" s="14"/>
+    </row>
+    <row r="716" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F716" s="14"/>
+    </row>
+    <row r="717" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F717" s="14"/>
+    </row>
+    <row r="718" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F718" s="14"/>
+    </row>
+    <row r="719" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F719" s="14"/>
+    </row>
+    <row r="720" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F720" s="14"/>
+    </row>
+    <row r="721" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F721" s="14"/>
+    </row>
+    <row r="722" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F722" s="14"/>
+    </row>
+    <row r="723" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F723" s="14"/>
+    </row>
+    <row r="724" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F724" s="14"/>
+    </row>
+    <row r="725" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F725" s="14"/>
+    </row>
+    <row r="726" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F726" s="14"/>
+    </row>
+    <row r="727" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F727" s="14"/>
+    </row>
+    <row r="728" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F728" s="14"/>
+    </row>
+    <row r="729" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F729" s="14"/>
+    </row>
+    <row r="730" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F730" s="14"/>
+    </row>
+    <row r="731" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F731" s="14"/>
+    </row>
+    <row r="732" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F732" s="14"/>
+    </row>
+    <row r="733" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F733" s="14"/>
+    </row>
+    <row r="734" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F734" s="14"/>
+    </row>
+    <row r="735" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F735" s="14"/>
+    </row>
+    <row r="736" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F736" s="14"/>
+    </row>
+    <row r="737" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F737" s="14"/>
+    </row>
+    <row r="738" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F738" s="14"/>
+    </row>
+    <row r="739" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F739" s="14"/>
+    </row>
+    <row r="740" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F740" s="14"/>
+    </row>
+    <row r="741" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F741" s="14"/>
+    </row>
+    <row r="742" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F742" s="14"/>
+    </row>
+    <row r="743" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F743" s="14"/>
+    </row>
+    <row r="744" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F744" s="14"/>
+    </row>
+    <row r="745" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F745" s="14"/>
+    </row>
+    <row r="746" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F746" s="14"/>
+    </row>
+    <row r="747" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F747" s="14"/>
+    </row>
+    <row r="748" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F748" s="14"/>
+    </row>
+    <row r="749" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F749" s="14"/>
+    </row>
+    <row r="750" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F750" s="14"/>
+    </row>
+    <row r="751" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F751" s="14"/>
+    </row>
+    <row r="752" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F752" s="14"/>
+    </row>
+    <row r="753" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F753" s="14"/>
+    </row>
+    <row r="754" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F754" s="14"/>
+    </row>
+    <row r="755" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F755" s="14"/>
+    </row>
+    <row r="756" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F756" s="14"/>
+    </row>
+    <row r="757" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F757" s="14"/>
+    </row>
+    <row r="758" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F758" s="14"/>
+    </row>
+    <row r="759" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F759" s="14"/>
+    </row>
+    <row r="760" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F760" s="14"/>
+    </row>
+    <row r="761" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F761" s="14"/>
+    </row>
+    <row r="762" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F762" s="14"/>
+    </row>
+    <row r="763" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F763" s="14"/>
+    </row>
+    <row r="764" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F764" s="14"/>
+    </row>
+    <row r="765" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F765" s="14"/>
+    </row>
+    <row r="766" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F766" s="14"/>
+    </row>
+    <row r="767" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F767" s="14"/>
+    </row>
+    <row r="768" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F768" s="14"/>
+    </row>
+    <row r="769" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F769" s="14"/>
+    </row>
+    <row r="770" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F770" s="14"/>
+    </row>
+    <row r="771" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F771" s="14"/>
+    </row>
+    <row r="772" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F772" s="14"/>
+    </row>
+    <row r="773" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F773" s="14"/>
+    </row>
+    <row r="774" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F774" s="14"/>
+    </row>
+    <row r="775" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F775" s="14"/>
+    </row>
+    <row r="776" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F776" s="14"/>
+    </row>
+    <row r="777" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F777" s="14"/>
+    </row>
+    <row r="778" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F778" s="14"/>
+    </row>
+    <row r="779" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F779" s="14"/>
+    </row>
+    <row r="780" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F780" s="14"/>
+    </row>
+    <row r="781" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F781" s="14"/>
+    </row>
+    <row r="782" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F782" s="14"/>
+    </row>
+    <row r="783" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F783" s="14"/>
+    </row>
+    <row r="784" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F784" s="14"/>
+    </row>
+    <row r="785" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F785" s="14"/>
+    </row>
+    <row r="786" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F786" s="14"/>
+    </row>
+    <row r="787" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F787" s="14"/>
+    </row>
+    <row r="788" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F788" s="14"/>
+    </row>
+    <row r="789" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F789" s="14"/>
+    </row>
+    <row r="790" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F790" s="14"/>
+    </row>
+    <row r="791" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F791" s="14"/>
+    </row>
+    <row r="792" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F792" s="14"/>
+    </row>
+    <row r="793" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F793" s="14"/>
+    </row>
+    <row r="794" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F794" s="14"/>
+    </row>
+    <row r="795" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F795" s="14"/>
+    </row>
+    <row r="796" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F796" s="14"/>
+    </row>
+    <row r="797" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F797" s="14"/>
+    </row>
+    <row r="798" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F798" s="14"/>
+    </row>
+    <row r="799" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F799" s="14"/>
+    </row>
+    <row r="800" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F800" s="14"/>
+    </row>
+    <row r="801" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F801" s="14"/>
+    </row>
+    <row r="802" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F802" s="14"/>
+    </row>
+    <row r="803" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F803" s="14"/>
+    </row>
+    <row r="804" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F804" s="14"/>
+    </row>
+    <row r="805" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F805" s="14"/>
+    </row>
+    <row r="806" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F806" s="14"/>
+    </row>
+    <row r="807" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F807" s="14"/>
+    </row>
+    <row r="808" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F808" s="14"/>
+    </row>
+    <row r="809" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F809" s="14"/>
+    </row>
+    <row r="810" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F810" s="14"/>
+    </row>
+    <row r="811" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F811" s="14"/>
+    </row>
+    <row r="812" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F812" s="14"/>
+    </row>
+    <row r="813" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F813" s="14"/>
+    </row>
+    <row r="814" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F814" s="14"/>
+    </row>
+    <row r="815" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F815" s="14"/>
+    </row>
+    <row r="816" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F816" s="14"/>
+    </row>
+    <row r="817" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F817" s="14"/>
+    </row>
+    <row r="818" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F818" s="14"/>
+    </row>
+    <row r="819" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F819" s="14"/>
+    </row>
+    <row r="820" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F820" s="14"/>
+    </row>
+    <row r="821" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F821" s="14"/>
+    </row>
+    <row r="822" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F822" s="14"/>
+    </row>
+    <row r="823" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F823" s="14"/>
+    </row>
+    <row r="824" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F824" s="14"/>
+    </row>
+    <row r="825" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F825" s="14"/>
+    </row>
+    <row r="826" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F826" s="14"/>
+    </row>
+    <row r="827" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F827" s="14"/>
+    </row>
+    <row r="828" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F828" s="14"/>
+    </row>
+    <row r="829" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F829" s="14"/>
+    </row>
+    <row r="830" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F830" s="14"/>
+    </row>
+    <row r="831" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F831" s="14"/>
+    </row>
+    <row r="832" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F832" s="14"/>
+    </row>
+    <row r="833" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F833" s="14"/>
+    </row>
+    <row r="834" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F834" s="14"/>
+    </row>
+    <row r="835" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F835" s="14"/>
+    </row>
+    <row r="836" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F836" s="14"/>
+    </row>
+    <row r="837" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F837" s="14"/>
+    </row>
+    <row r="838" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F838" s="14"/>
+    </row>
+    <row r="839" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F839" s="14"/>
+    </row>
+    <row r="840" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F840" s="14"/>
+    </row>
+    <row r="841" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F841" s="14"/>
+    </row>
+    <row r="842" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F842" s="14"/>
+    </row>
+    <row r="843" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F843" s="14"/>
+    </row>
+    <row r="844" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F844" s="14"/>
+    </row>
+    <row r="845" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F845" s="14"/>
+    </row>
+    <row r="846" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F846" s="14"/>
+    </row>
+    <row r="847" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F847" s="14"/>
+    </row>
+    <row r="848" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F848" s="14"/>
+    </row>
+    <row r="849" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F849" s="14"/>
+    </row>
+    <row r="850" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F850" s="14"/>
+    </row>
+    <row r="851" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F851" s="14"/>
+    </row>
+    <row r="852" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F852" s="14"/>
+    </row>
+    <row r="853" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F853" s="14"/>
+    </row>
+    <row r="854" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F854" s="14"/>
+    </row>
+    <row r="855" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F855" s="14"/>
+    </row>
+    <row r="856" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F856" s="14"/>
+    </row>
+    <row r="857" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F857" s="14"/>
+    </row>
+    <row r="858" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F858" s="14"/>
+    </row>
+    <row r="859" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F859" s="14"/>
+    </row>
+    <row r="860" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F860" s="14"/>
+    </row>
+    <row r="861" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F861" s="14"/>
+    </row>
+    <row r="862" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F862" s="14"/>
+    </row>
+    <row r="863" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F863" s="14"/>
+    </row>
+    <row r="864" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F864" s="14"/>
+    </row>
+    <row r="865" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F865" s="14"/>
+    </row>
+    <row r="866" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F866" s="14"/>
+    </row>
+    <row r="867" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F867" s="14"/>
+    </row>
+    <row r="868" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F868" s="14"/>
+    </row>
+    <row r="869" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F869" s="14"/>
+    </row>
+    <row r="870" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F870" s="14"/>
+    </row>
+    <row r="871" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F871" s="14"/>
+    </row>
+    <row r="872" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F872" s="14"/>
+    </row>
+    <row r="873" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F873" s="14"/>
+    </row>
+    <row r="874" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F874" s="14"/>
+    </row>
+    <row r="875" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F875" s="14"/>
+    </row>
+    <row r="876" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F876" s="14"/>
+    </row>
+    <row r="877" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F877" s="14"/>
+    </row>
+    <row r="878" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F878" s="14"/>
+    </row>
+    <row r="879" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F879" s="14"/>
+    </row>
+    <row r="880" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F880" s="14"/>
+    </row>
+    <row r="881" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F881" s="14"/>
+    </row>
+    <row r="882" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F882" s="14"/>
+    </row>
+    <row r="883" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F883" s="14"/>
+    </row>
+    <row r="884" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F884" s="14"/>
+    </row>
+    <row r="885" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F885" s="14"/>
+    </row>
+    <row r="886" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F886" s="14"/>
+    </row>
+    <row r="887" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F887" s="14"/>
+    </row>
+    <row r="888" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F888" s="14"/>
+    </row>
+    <row r="889" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F889" s="14"/>
+    </row>
+    <row r="890" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F890" s="14"/>
+    </row>
+    <row r="891" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F891" s="14"/>
+    </row>
+    <row r="892" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F892" s="14"/>
+    </row>
+    <row r="893" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F893" s="14"/>
+    </row>
+    <row r="894" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F894" s="14"/>
+    </row>
+    <row r="895" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F895" s="14"/>
+    </row>
+    <row r="896" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F896" s="14"/>
+    </row>
+    <row r="897" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F897" s="14"/>
+    </row>
+    <row r="898" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F898" s="14"/>
+    </row>
+    <row r="899" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F899" s="14"/>
+    </row>
+    <row r="900" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F900" s="14"/>
+    </row>
+    <row r="901" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F901" s="14"/>
+    </row>
+    <row r="902" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F902" s="14"/>
+    </row>
+    <row r="903" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F903" s="14"/>
+    </row>
+    <row r="904" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F904" s="14"/>
+    </row>
+    <row r="905" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F905" s="14"/>
+    </row>
+    <row r="906" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F906" s="14"/>
+    </row>
+    <row r="907" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F907" s="14"/>
+    </row>
+    <row r="908" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F908" s="14"/>
+    </row>
+    <row r="909" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F909" s="14"/>
+    </row>
+    <row r="910" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F910" s="14"/>
+    </row>
+    <row r="911" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F911" s="14"/>
+    </row>
+    <row r="912" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F912" s="14"/>
+    </row>
+    <row r="913" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F913" s="14"/>
+    </row>
+    <row r="914" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F914" s="14"/>
+    </row>
+    <row r="915" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F915" s="14"/>
+    </row>
+    <row r="916" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F916" s="14"/>
+    </row>
+    <row r="917" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F917" s="14"/>
+    </row>
+    <row r="918" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F918" s="14"/>
+    </row>
+    <row r="919" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F919" s="14"/>
+    </row>
+    <row r="920" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F920" s="14"/>
+    </row>
+    <row r="921" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F921" s="14"/>
+    </row>
+    <row r="922" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F922" s="14"/>
+    </row>
+    <row r="923" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F923" s="14"/>
+    </row>
+    <row r="924" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F924" s="14"/>
+    </row>
+    <row r="925" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F925" s="14"/>
+    </row>
+    <row r="926" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F926" s="14"/>
+    </row>
+    <row r="927" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F927" s="14"/>
+    </row>
+    <row r="928" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F928" s="14"/>
+    </row>
+    <row r="929" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F929" s="14"/>
+    </row>
+    <row r="930" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F930" s="14"/>
+    </row>
+    <row r="931" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F931" s="14"/>
+    </row>
+    <row r="932" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F932" s="14"/>
+    </row>
+    <row r="933" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F933" s="14"/>
+    </row>
+    <row r="934" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F934" s="14"/>
+    </row>
+    <row r="935" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F935" s="14"/>
+    </row>
+    <row r="936" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F936" s="14"/>
+    </row>
+    <row r="937" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F937" s="14"/>
+    </row>
+    <row r="938" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F938" s="14"/>
+    </row>
+    <row r="939" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F939" s="14"/>
+    </row>
+    <row r="940" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F940" s="14"/>
+    </row>
+    <row r="941" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F941" s="14"/>
+    </row>
+    <row r="942" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F942" s="14"/>
+    </row>
+    <row r="943" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F943" s="14"/>
+    </row>
+    <row r="944" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F944" s="14"/>
+    </row>
+    <row r="945" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F945" s="14"/>
+    </row>
+    <row r="946" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F946" s="14"/>
+    </row>
+    <row r="947" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F947" s="14"/>
+    </row>
+    <row r="948" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F948" s="14"/>
+    </row>
+    <row r="949" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F949" s="14"/>
+    </row>
+    <row r="950" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F950" s="14"/>
+    </row>
+    <row r="951" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F951" s="14"/>
+    </row>
+    <row r="952" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F952" s="14"/>
+    </row>
+    <row r="953" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F953" s="14"/>
+    </row>
+    <row r="954" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F954" s="14"/>
+    </row>
+    <row r="955" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F955" s="14"/>
+    </row>
+    <row r="956" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F956" s="14"/>
+    </row>
+    <row r="957" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F957" s="14"/>
+    </row>
+    <row r="958" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F958" s="14"/>
+    </row>
+    <row r="959" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F959" s="14"/>
+    </row>
+    <row r="960" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F960" s="14"/>
+    </row>
+    <row r="961" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F961" s="14"/>
+    </row>
+    <row r="962" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F962" s="14"/>
+    </row>
+    <row r="963" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F963" s="14"/>
+    </row>
+    <row r="964" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F964" s="14"/>
+    </row>
+    <row r="965" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F965" s="14"/>
+    </row>
+    <row r="966" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F966" s="14"/>
+    </row>
+    <row r="967" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F967" s="14"/>
+    </row>
+    <row r="968" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F968" s="14"/>
+    </row>
+    <row r="969" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F969" s="14"/>
+    </row>
+    <row r="970" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F970" s="14"/>
+    </row>
+    <row r="971" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F971" s="14"/>
+    </row>
+    <row r="972" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F972" s="14"/>
+    </row>
+    <row r="973" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F973" s="14"/>
+    </row>
+    <row r="974" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F974" s="14"/>
+    </row>
+    <row r="975" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F975" s="14"/>
+    </row>
+    <row r="976" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F976" s="14"/>
+    </row>
+    <row r="977" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F977" s="14"/>
+    </row>
+    <row r="978" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F978" s="14"/>
+    </row>
+    <row r="979" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F979" s="14"/>
+    </row>
+    <row r="980" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F980" s="14"/>
+    </row>
+    <row r="981" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F981" s="14"/>
+    </row>
+    <row r="982" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F982" s="14"/>
+    </row>
+    <row r="983" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F983" s="14"/>
+    </row>
+    <row r="984" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F984" s="14"/>
+    </row>
+    <row r="985" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F985" s="14"/>
+    </row>
+    <row r="986" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F986" s="14"/>
+    </row>
+    <row r="987" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F987" s="14"/>
+    </row>
+    <row r="988" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F988" s="14"/>
+    </row>
+    <row r="989" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F989" s="14"/>
+    </row>
+    <row r="990" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F990" s="14"/>
+    </row>
+    <row r="991" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F991" s="14"/>
+    </row>
+    <row r="992" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F992" s="14"/>
+    </row>
+    <row r="993" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F993" s="14"/>
+    </row>
+    <row r="994" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F994" s="14"/>
+    </row>
+    <row r="995" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F995" s="14"/>
+    </row>
+    <row r="996" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F996" s="14"/>
+    </row>
+    <row r="997" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F997" s="14"/>
+    </row>
+    <row r="998" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F998" s="14"/>
+    </row>
+    <row r="999" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F999" s="14"/>
+    </row>
+    <row r="1000" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1000" s="14"/>
+    </row>
+    <row r="1001" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1001" s="14"/>
+    </row>
+    <row r="1002" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1002" s="14"/>
+    </row>
+    <row r="1003" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1003" s="14"/>
+    </row>
+    <row r="1004" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1004" s="14"/>
+    </row>
+    <row r="1005" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1005" s="14"/>
+    </row>
+    <row r="1006" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1006" s="14"/>
+    </row>
+    <row r="1007" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1007" s="14"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:K3"/>
     <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation allowBlank="false" error="Por favor no modificar el valor de esta celda." errorStyle="stop" operator="between" showDropDown="true" showErrorMessage="true" showInputMessage="false" sqref="A1:C4 L1:N3 E3:F3 D4:N4" type="list">
       <formula1>""</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="El valor debe ser un año del plan de estudios.&#10;1, 2, 3, etc." errorStyle="warning" errorTitle="El dato ingresado no es válido." operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A5:A1004" type="whole">
+    <dataValidation allowBlank="true" error="El valor debe ser un año del plan de estudios.&#10;1, 2, 3, etc." errorStyle="warning" errorTitle="El dato ingresado no es válido." operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A5:A1007" type="whole">
       <formula1>1</formula1>
       <formula2>9</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="El valor debe ser un número entero no negativo." errorStyle="warning" errorTitle="El dato ingresado no es válido." operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I5:I1007" type="whole">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Por favor ingresar un día de la semana." errorStyle="warning" operator="between" showDropDown="true" showErrorMessage="true" showInputMessage="false" sqref="F5:F1007" type="list">
+      <formula1>"Lunes,LUNES,lunes,Martes,MARTES,martes,Miércoles,MIÉRCOLES,miércoles,Miercoles,MIERCOLES,miercoles,Jueves,JUEVES,jueves,Viernes,VIERNES,viernes,Sábado,SÁBADO,sábado,Sabado,SABADO,sabado,Domingo,DOMINGO,domingo"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Excel no reconoce el valor ingresado como un horario." errorStyle="warning" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G5:H1007" type="time">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
     </dataValidation>
     <dataValidation allowBlank="false" error="El valor de esta celda debe ser un año." errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D3" type="whole">
       <formula1>2000</formula1>
       <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" error="El valor debe ser un número entero no negativo." errorStyle="warning" errorTitle="El dato ingresado no es válido." operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I5:I1004" type="whole">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" error="Por favor ingresar un día de la semana." errorStyle="warning" operator="between" showDropDown="true" showErrorMessage="true" showInputMessage="false" sqref="F5:F1004" type="list">
-      <formula1>"Lunes,LUNES,lunes,Martes,MARTES,martes,Miércoles,MIÉRCOLES,miércoles,Miercoles,MIERCOLES,miercoles,Jueves,JUEVES,jueves,Viernes,VIERNES,viernes,Sábado,SÁBADO,sábado,Sabado,SABADO,sabado,Domingo,DOMINGO,domingo"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" error="Excel no reconoce el valor ingresado como un horario." errorStyle="warning" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G5:H1004" type="time">
-      <formula1>0</formula1>
-      <formula2>1</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
